--- a/biology/Zoologie/Bathysalenia/Bathysalenia.xlsx
+++ b/biology/Zoologie/Bathysalenia/Bathysalenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bathysalenia est un genre d'oursins, de la famille des Saleniidae. On le trouve exclusivement dans les abysses. 
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers : le test (coquille) est plus ou moins globulaire, protégé par des radioles (piquants), l'ensemble étant marqué par une symétrie pentaradiaire reliant la bouche située au centre de la face orale (inférieure) à l'anus situé à l'apex aboral (pôle supérieur), quoique légèrement excentré dans cette famille, et protégé par une grosse plaque suranale. 
 Le disque apical est large par rapport au test, à peine surélevé par-rapport à la couronne ; les plaques sont ornées de pustules. 
 Le périprocte est large et excentrique, et plus large que la plaque suranale. 
 Les plaques ambulacraires sont bigéminées au moins oralement. 
-Le péristome est plus petit que le disque apical, avec des encoches buccales peu marquées[2].
-Ce genre est apparu au Crétacé inférieur (Albien)[2].
+Le péristome est plus petit que le disque apical, avec des encoches buccales peu marquées.
+Ce genre est apparu au Crétacé inférieur (Albien).
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (19 mai 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (19 mai 2015) :
 Bathysalenia cincta (A. Agassiz &amp; H.L. Clark, 1907) -- Japon (170-520 m de profondeur).
 Bathysalenia goesiana (Lovén, 1874) -- Caraïbes (90-540 m)
 Bathysalenia phoinissa (A. Agassiz &amp; H.L. Clark, 1908) -- Afrique du Sud (100 m)
@@ -557,7 +573,7 @@
 Bathysalenia sculpta (Koehler, 1927) -- îles Andaman (110-135 m)
 Bathysalenia skylari Jagt, Jackson &amp; van der Ham, 2014 † -- Texas
 Bathysalenia unicolor (Mortensen, 1934) -- Japon
-L'Echinoid Directory[2] y ajoute d'autres espèces fossiles : 
+L'Echinoid Directory y ajoute d'autres espèces fossiles : 
 Bathysalenia peroni (Cotteau, 1867) -- Albien, Tunisie
 Bathysalenia granulosa (Woodward, 1856) -- Turonien-Santonien, Europe
 Bathysalenia obnupta (Schluter, 1892) -- Campanien, Europe occidentale
